--- a/biology/Zoologie/Canard_de_Pékin_américain/Canard_de_Pékin_américain.xlsx
+++ b/biology/Zoologie/Canard_de_Pékin_américain/Canard_de_Pékin_américain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_de_P%C3%A9kin_am%C3%A9ricain</t>
+          <t>Canard_de_Pékin_américain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le canard de Pékin américain (Anas platyrhynchos domestica, Anas platyrhynchos var. domesticus) est un canard domestique originaire de Chine qui a été introduit en 1873 aux États-Unis  et introduit également en Angleterre[1] où il est amélioré avec le canard d'Aylesbury principalement pour sa viande et ses œufs. Lorsqu'elle est élevée dans de bonnes conditions, la femelle pond un œuf tous les jours durant une période de ponte qui peut s'échelonner de quelques semaines à quelques mois (jusqu'à 6 mois consécutifs). Il ne doit pas être confondu avec le pékin allemand au port vertical.
+Le canard de Pékin américain (Anas platyrhynchos domestica, Anas platyrhynchos var. domesticus) est un canard domestique originaire de Chine qui a été introduit en 1873 aux États-Unis  et introduit également en Angleterre où il est amélioré avec le canard d'Aylesbury principalement pour sa viande et ses œufs. Lorsqu'elle est élevée dans de bonnes conditions, la femelle pond un œuf tous les jours durant une période de ponte qui peut s'échelonner de quelques semaines à quelques mois (jusqu'à 6 mois consécutifs). Il ne doit pas être confondu avec le pékin allemand au port vertical.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_de_P%C3%A9kin_am%C3%A9ricain</t>
+          <t>Canard_de_Pékin_américain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa couleur est identique chez le mâle et la femelle. Il est blanc avec un bec jaune. La différence entre le mâle et la femelle sont les plumes de la queue. Chez la femelle, les plumes de la queue sont bien droites jusqu'à la fin, tandis que pour le mâle, quelques plumes de la queue se retroussent vers le haut. Le mâle est aussi un peu plus gros. Ses ailes ne lui servent qu'à planer car il est trop lourd pour voler.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_de_P%C3%A9kin_am%C3%A9ricain</t>
+          <t>Canard_de_Pékin_américain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce canard est facile à élever car il est robuste et sociable[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce canard est facile à élever car il est robuste et sociable. 
 </t>
         </is>
       </c>
